--- a/Wine_Quality/outputs/train_60_test_40/depth_2/wq_train_60_test_40_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_2/wq_train_60_test_40_depth_2_report.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,45 +471,45 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8214971209213052</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8603015075376884</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8404516445753559</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4466019417475728</v>
+        <v>0.7656791073489804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4500978473581213</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4483430799220273</v>
+        <v>0.8672913488777512</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7472104655636783</v>
+        <v>0.7656791073489804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7472104655636783</v>
+        <v>0.7656791073489804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7472104655636783</v>
+        <v>0.7656791073489804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7472104655636783</v>
+        <v>0.7656791073489804</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4226996875562927</v>
+        <v>0.2552263691163268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4367997849652699</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4295982414991277</v>
+        <v>0.2890971162925837</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7168114131844583</v>
+        <v>0.5862644954307313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7472104655636783</v>
+        <v>0.7656791073489804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7316668282205133</v>
+        <v>0.6640668658202096</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_2/wq_train_60_test_40_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_2/wq_train_60_test_40_depth_2_report.xlsx
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7656791073489804</v>
+        <v>0.77</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8672913488777512</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7656791073489804</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7656791073489804</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7656791073489804</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7656791073489804</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2552263691163268</v>
+        <v>0.26</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2890971162925837</v>
+        <v>0.29</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5862644954307313</v>
+        <v>0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7656791073489804</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6640668658202096</v>
+        <v>0.66</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
